--- a/Estadistica/Parcial/data_p-1.xlsx
+++ b/Estadistica/Parcial/data_p-1.xlsx
@@ -19,10 +19,10 @@
     <t>tiempo_ciclo</t>
   </si>
   <si>
-    <t>teperatura</t>
+    <t>temperatura</t>
   </si>
   <si>
-    <t>prendas</t>
+    <t>calificacion</t>
   </si>
 </sst>
 </file>
@@ -116,10 +116,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
